--- a/template.xlsx
+++ b/template.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Downloads\SELECTIVE-PROCESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Documents\UiPath\Selective Bot\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$1299</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,34 +27,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Customer Name </t>
-  </si>
-  <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>REF CODE</t>
+  </si>
+  <si>
+    <t>BANK/PLACEMENT</t>
+  </si>
+  <si>
+    <t>Ch code</t>
+  </si>
+  <si>
+    <t>AGENT</t>
+  </si>
+  <si>
+    <t>TAGGING AGENT</t>
+  </si>
+  <si>
+    <t>Final Agent</t>
+  </si>
+  <si>
+    <t>Final SS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>NEGO BUDDY</t>
+  </si>
+  <si>
+    <t>Final SSS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>FINAL AMOUNT</t>
+  </si>
+  <si>
+    <t>Customer Block Code</t>
+  </si>
+  <si>
+    <t>UNIT CODE</t>
+  </si>
+  <si>
+    <t>PLACEMENT</t>
+  </si>
+  <si>
+    <t>FINAL PLACEMENT</t>
+  </si>
+  <si>
+    <t>CF RATE</t>
+  </si>
+  <si>
+    <t>CF AMOUNT</t>
+  </si>
+  <si>
+    <t>TYPE  OF PAYMENT</t>
+  </si>
+  <si>
+    <t>PAYMENT SOURCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -63,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -80,14 +158,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -117,7 +227,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -129,7 +239,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,39 +507,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:Y1299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="1" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Documents\UiPath\Selective Bot\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Desktop\ONLY SAVE FILE HERE\SELECTIVES\SELECTIVE-PROCESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>REF CODE</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>PAYMENT SOURCE</t>
+  </si>
+  <si>
+    <t>Prefix</t>
   </si>
 </sst>
 </file>
@@ -109,20 +112,13 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -158,27 +154,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +503,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y1299"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,79 +519,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
